--- a/src/Web/static/reports/InvoiceTemplate1.xlsx
+++ b/src/Web/static/reports/InvoiceTemplate1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\Web\static\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82451956-A0DE-45F9-BA02-D123D5706E21}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="10644"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Рахунок-фактура" sheetId="1" r:id="rId1"/>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -215,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -279,6 +280,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,24 +563,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="7" width="14" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -588,7 +593,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -600,7 +605,7 @@
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -612,7 +617,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -624,8 +629,8 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="25.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>11</v>
       </c>
@@ -636,7 +641,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>12</v>
       </c>
@@ -647,7 +652,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -668,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -689,7 +694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -702,17 +707,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>10</v>
       </c>
@@ -723,17 +728,17 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="15"/>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>26</v>
       </c>
@@ -745,7 +750,8 @@
       <c r="G27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C24:G24"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="B12:C12"/>
